--- a/package/ExcelReport.xlsx
+++ b/package/ExcelReport.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="测试报告详情" sheetId="1" r:id="rId1"/>
-    <sheet name="计算机配置" sheetId="2" r:id="rId2"/>
+    <sheet name="计算机配置详情" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>用例名称</t>
   </si>
@@ -62,13 +62,61 @@
     <t>SSSDDFDFD/**//*~!@#$%^&amp;*()_+</t>
   </si>
   <si>
-    <t>45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的</t>
+    <t>45646546SFDGD 鬼地方个回复的</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>成功无截图</t>
+    <t>测试机配置明细单</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>内存</t>
+  </si>
+  <si>
+    <t>磁盘</t>
+  </si>
+  <si>
+    <t>网卡</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>硬件消耗情况</t>
+  </si>
+  <si>
+    <t>硬件配置情况</t>
+  </si>
+  <si>
+    <t>{'使用率': ' 7.8%', '当前频率': '1600.0Hz', '用户占用率': '1.5%', '系统占用率': '7.7%', '空闲值': '89.2%'}</t>
+  </si>
+  <si>
+    <t>{'名称': 'Intel(R) Core(TM) i5-2300 CPU @ 2.80GHz', '核心数': 4, '位数': 64, '最大速度': 3101, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'DESKTOP-RAFN6EL'}</t>
+  </si>
+  <si>
+    <t>{'容量': '7.96GB', '空闲': '4.60GB', '使用率': '42.3%', '占用': '3.365GB'}</t>
+  </si>
+  <si>
+    <t>{'条数': '2', '容量': '8.0GB', '位数': 64, '型号': '99U5471-056.A00LF', '频率': '1333MHz', '厂家': 'Kingston'}</t>
+  </si>
+  <si>
+    <t>{'容量': '200.0GB', '已使用量': '82.9GB', '剩余量': '117.016GB', '使用率': '41.5%'}</t>
+  </si>
+  <si>
+    <t>{'品牌': 'ST1000DM003-1ER162 ATA Device', '型号': 'S4Y2BGNM', '容量': '0.90TB'}</t>
+  </si>
+  <si>
+    <t>{'最大上行': '22.390MB', '最大下行': '562.5MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.1.3', '子网掩码': '255.255.255.0', 'MAC地址': 'FC:AA:14:35:55:52', '网关地址': '192.168.1.1', 'DNS地址': '61.139.2.69', '网卡类别': 'Realtek PCIe GBE Family Controller'}</t>
+  </si>
+  <si>
+    <t>{'电脑名称': 'DESKTOP-RAFN6EL', '操作系统': 'Windows-10-10.0.16299-SP0', '操作系统位数': ('32bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
   </si>
 </sst>
 </file>
@@ -149,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -162,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +591,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -551,6 +607,8 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -671,12 +729,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C20:E21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/package/ExcelReport.xlsx
+++ b/package/ExcelReport.xlsx
@@ -7,15 +7,100 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="测试报告详情" sheetId="1" r:id="rId1"/>
-    <sheet name="计算机配置" sheetId="2" r:id="rId2"/>
+    <sheet name="测试报告总览" sheetId="1" r:id="rId1"/>
+    <sheet name="测试报告详情" sheetId="2" r:id="rId2"/>
+    <sheet name="计算机配置详情" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+  <si>
+    <t>测试机配置明细单</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>内存</t>
+  </si>
+  <si>
+    <t>磁盘</t>
+  </si>
+  <si>
+    <t>网卡</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>硬件消耗情况</t>
+  </si>
+  <si>
+    <t>硬件配置情况</t>
+  </si>
+  <si>
+    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '9.4%', '空闲值': '90.5%'}</t>
+  </si>
+  <si>
+    <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
+  </si>
+  <si>
+    <t>{'容量': '7.90GB', '空闲': '3.077GB', '使用率': '61.1%', '占用': '4.83GB'}</t>
+  </si>
+  <si>
+    <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
+  </si>
+  <si>
+    <t>{'容量': '831.GB', '已使用量': '11.58GB', '剩余量': '819.92GB', '使用率': '1.4%'}</t>
+  </si>
+  <si>
+    <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
+  </si>
+  <si>
+    <t>{'最大上行': '698.0MB', '最大下行': '2510.MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.29', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.1', 'DNS地址': '8.8.8.8', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+  </si>
+  <si>
+    <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
+  </si>
+  <si>
+    <t>SCRM项目自动化测试报告</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>总用时</t>
+  </si>
+  <si>
+    <t>参与人员</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>测试工具</t>
+  </si>
+  <si>
+    <t>总用例数</t>
+  </si>
+  <si>
+    <t>成功数</t>
+  </si>
+  <si>
+    <t>失败数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>用例名称</t>
   </si>
@@ -44,44 +129,63 @@
     <t>备注</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>test/122</t>
+  </si>
+  <si>
+    <t>符合规范的</t>
+  </si>
+  <si>
+    <t>336.225555577</t>
+  </si>
+  <si>
+    <t>8888.555555555</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>辅导费333</t>
+  </si>
+  <si>
+    <t>苟富贵</t>
+  </si>
+  <si>
     <t>登录首页</t>
   </si>
   <si>
     <t>test/test/122</t>
   </si>
   <si>
-    <t>336.225555577</t>
-  </si>
-  <si>
-    <t>8888.555555555</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>SSSDDFDFD/**//*~!@#$%^&amp;*()_+</t>
-  </si>
-  <si>
-    <t>45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的45646546SFDGD 鬼地方个回复的</t>
+    <t>辅导费</t>
+  </si>
+  <si>
+    <t>hhj古典风格</t>
   </si>
   <si>
     <t>成功</t>
-  </si>
-  <si>
-    <t>成功无截图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -149,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -157,11 +261,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -185,7 +295,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3470</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1097</xdr:rowOff>
+      <xdr:rowOff>3434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -203,7 +313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15897225" y="190500"/>
-          <a:ext cx="1384595" cy="763097"/>
+          <a:ext cx="1384595" cy="994034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -223,7 +333,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3470</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1097</xdr:rowOff>
+      <xdr:rowOff>3434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -240,8 +350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15897225" y="952500"/>
-          <a:ext cx="1384595" cy="763097"/>
+          <a:off x="15897225" y="1181100"/>
+          <a:ext cx="1384595" cy="994034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,9 +648,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1"/>
+    <row r="7" spans="1:6" ht="25" customHeight="1"/>
+    <row r="8" spans="1:6" ht="25" customHeight="1"/>
+    <row r="9" spans="1:6" ht="25" customHeight="1"/>
+    <row r="10" spans="1:6" ht="25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -551,116 +747,124 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="100.7109375" customWidth="1"/>
+    <col min="11" max="11" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="78" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -669,14 +873,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C20:E21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/package/ExcelReport.xlsx
+++ b/package/ExcelReport.xlsx
@@ -16,7 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+  <si>
+    <t>ukuaiqi项目UI自动化测试报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>测试版本</t>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>测试工具</t>
+  </si>
+  <si>
+    <t>参与人员</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>总用例数</t>
+  </si>
+  <si>
+    <t>成功数</t>
+  </si>
+  <si>
+    <t>失败数</t>
+  </si>
+  <si>
+    <t>错误数</t>
+  </si>
+  <si>
+    <t>跳过数</t>
+  </si>
+  <si>
+    <t>总用时</t>
+  </si>
   <si>
     <t>测试机配置明细单</t>
   </si>
@@ -42,64 +84,31 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '9.4%', '空闲值': '90.5%'}</t>
+    <t>{'使用率': ' 10.9%', '当前频率': '2482.0Hz', '用户占用率': '3.0%', '系统占用率': '16.7%', '空闲值': '78.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.077GB', '使用率': '61.1%', '占用': '4.83GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.474GB', '使用率': '56.1%', '占用': '4.43GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '11.58GB', '剩余量': '819.92GB', '使用率': '1.4%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.32GB', '剩余量': '817.18GB', '使用率': '1.7%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '698.0MB', '最大下行': '2510.MB'}</t>
+    <t>{'最大上行': '168.94MB', '最大下行': '2431.4MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.29', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.1', 'DNS地址': '8.8.8.8', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
-  </si>
-  <si>
-    <t>SCRM项目自动化测试报告</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>总用时</t>
-  </si>
-  <si>
-    <t>参与人员</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>测试工具</t>
-  </si>
-  <si>
-    <t>总用例数</t>
-  </si>
-  <si>
-    <t>成功数</t>
-  </si>
-  <si>
-    <t>失败数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>用例名称</t>
@@ -172,20 +181,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -253,25 +255,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,6 +288,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3341</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="log.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="1965491" cy="1142750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -648,21 +696,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -670,60 +715,64 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1"/>
-    <row r="7" spans="1:6" ht="25" customHeight="1"/>
-    <row r="8" spans="1:6" ht="25" customHeight="1"/>
-    <row r="9" spans="1:6" ht="25" customHeight="1"/>
-    <row r="10" spans="1:6" ht="25" customHeight="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -753,118 +802,118 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="78" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="78" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="78" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="78" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="78" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -889,203 +938,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
